--- a/documents/ételrendelő-rendszer.xlsx
+++ b/documents/ételrendelő-rendszer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rendszerfejlesztés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83426A4-CE71-4BEC-BBB6-BEB947598193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D854DF-72EC-4A8A-8CAA-A86F7630B037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,10 +213,10 @@
     <t>A futár kilistáztatja a jelenlegi kiszállítási sorrendet</t>
   </si>
   <si>
-    <t>A rendszer megjeleníti az étlap rögzítésénél beállítható paramétereket: étel neve, ára</t>
-  </si>
-  <si>
-    <t>Az étteremvezető kiválasztja a megfelelő paramétereket: étel neve, ára</t>
+    <t>A rendszer megjeleníti az étlap rögzítésénél beállítható paramétereket: kategória neve, étel neve,  ára, akciós ára, akció időszaka</t>
+  </si>
+  <si>
+    <t>Az étteremvezető kiválasztja a megfelelő paramétereket: kategória neve, étel neve,  ára, akciós ára, akció időszaka</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -752,7 +752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
